--- a/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T07:58:15+00:00</t>
+    <t>2024-10-03T08:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T08:02:22+00:00</t>
+    <t>2024-10-03T08:04:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T08:04:24+00:00</t>
+    <t>2024-10-04T06:45:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T06:45:56+00:00</t>
+    <t>2024-10-04T12:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/229-format-de-la-date-dernière-recherche-flux-11-et-flux-51/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T12:37:24+00:00</t>
+    <t>2024-10-09T08:38:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
